--- a/docs/Tratamientos resumen nature y NYT.xlsx
+++ b/docs/Tratamientos resumen nature y NYT.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRVING\Documents\GitHub\Cov_19_specific_hazard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B67FA07-4676-4E2B-AF7C-05818C6E8C0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D64C709-A4CA-420A-9919-EA3775DA74F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12804" windowHeight="5364" activeTab="1" xr2:uid="{DD95F902-322D-4560-80E8-93C8E1F19792}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12810" windowHeight="5370" activeTab="2" xr2:uid="{DD95F902-322D-4560-80E8-93C8E1F19792}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>Tratamientos</t>
   </si>
@@ -158,6 +159,97 @@
   </si>
   <si>
     <t>Value of information.</t>
+  </si>
+  <si>
+    <t>Hospital and IC ward</t>
+  </si>
+  <si>
+    <t>Final Report_NEJM</t>
+  </si>
+  <si>
+    <t>Hidroxicloroquine</t>
+  </si>
+  <si>
+    <t>Effect of Hidroxy… NEJM</t>
+  </si>
+  <si>
+    <t>Lopinavir and Ritonavir</t>
+  </si>
+  <si>
+    <t>1.09 CI [0.97 - 1.23]</t>
+  </si>
+  <si>
+    <t>1.03 CI [0.91 - 1.17]</t>
+  </si>
+  <si>
+    <t>The Lancet</t>
+  </si>
+  <si>
+    <t>Mortality</t>
+  </si>
+  <si>
+    <t>Interferon</t>
+  </si>
+  <si>
+    <t>1.16 CI[0.96 - 1.39]</t>
+  </si>
+  <si>
+    <t>WHO NEJM</t>
+  </si>
+  <si>
+    <t>0.95 CI[0.81 - 1.11]</t>
+  </si>
+  <si>
+    <t>Tocilizumab with Pneumonia</t>
+  </si>
+  <si>
+    <t>0.56 CI[0.33 - 0.97] Mechanical Respiration or death. No change in survival.</t>
+  </si>
+  <si>
+    <t>Tocilizumab in Patients Hospitalized with Covid-19 Pneumonia NEJM</t>
+  </si>
+  <si>
+    <t>Baricitinib- Remdesivir</t>
+  </si>
+  <si>
+    <t>0.65 CI[0.39 - 1.09] 28 Mortality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baricitinib plus Remdesivir for Hospitalized Adults </t>
+  </si>
+  <si>
+    <t>IC WARD</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>IL-6-antagonists</t>
+  </si>
+  <si>
+    <t>0.64 CI: 0.51 - 0.81</t>
+  </si>
+  <si>
+    <t>0.82CI: 0.72 - 0.94</t>
+  </si>
+  <si>
+    <t>Dexamethasone Oxigeno con ventilacion invasiva</t>
+  </si>
+  <si>
+    <t>Dexamethasone in Hospitalized Patients</t>
+  </si>
+  <si>
+    <t>tocilizumab</t>
+  </si>
+  <si>
+    <t>sarilumab</t>
+  </si>
+  <si>
+    <t>Hospital mortality was 28.0% (98/350) for tocilizumab, 22.2% (10/45) for sarilumab and 35.8% (142/397) for control. The
+hospital mortality pooling both IL-6 receptor antagonists was 27.3% (108/395)</t>
+  </si>
+  <si>
+    <t>Sin publicarse por el momento MedRxiv Preprint</t>
   </si>
 </sst>
 </file>
@@ -215,12 +307,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -543,13 +647,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="149.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -565,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -573,7 +677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -581,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -589,7 +693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -597,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -605,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -613,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -631,20 +735,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D6FA558-733A-4B79-AC6A-82F009DFEC7A}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +765,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -669,7 +773,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -686,7 +790,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -697,7 +801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -711,14 +815,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -729,7 +833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -740,7 +844,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -758,4 +862,164 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A5EF67D-DBFF-46A5-9BEF-05679F2B8DF3}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="B14:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/Tratamientos resumen nature y NYT.xlsx
+++ b/docs/Tratamientos resumen nature y NYT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IRVING\Documents\GitHub\Cov_19_specific_hazard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D64C709-A4CA-420A-9919-EA3775DA74F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E948E8A2-E43E-468E-B878-8041984A4998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12810" windowHeight="5370" activeTab="2" xr2:uid="{DD95F902-322D-4560-80E8-93C8E1F19792}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12816" windowHeight="5376" activeTab="2" xr2:uid="{DD95F902-322D-4560-80E8-93C8E1F19792}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -212,9 +212,6 @@
     <t>Baricitinib- Remdesivir</t>
   </si>
   <si>
-    <t>0.65 CI[0.39 - 1.09] 28 Mortality</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baricitinib plus Remdesivir for Hospitalized Adults </t>
   </si>
   <si>
@@ -250,6 +247,9 @@
   </si>
   <si>
     <t>Sin publicarse por el momento MedRxiv Preprint</t>
+  </si>
+  <si>
+    <t>0.65 CI[0.39 - 1.09] 28 Mortality vs Remdesivir (grupo control)</t>
   </si>
 </sst>
 </file>
@@ -286,12 +286,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -307,18 +319,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -647,13 +666,13 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="88" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="149.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="149.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -669,7 +688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -677,7 +696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -685,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -693,7 +712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -701,7 +720,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -709,7 +728,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -717,7 +736,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -739,16 +758,16 @@
       <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -765,7 +784,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -773,7 +792,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -790,7 +809,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -801,7 +820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -815,14 +834,14 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -833,7 +852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -844,7 +863,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -869,17 +888,17 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -887,21 +906,21 @@
         <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -912,7 +931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>41</v>
       </c>
@@ -923,95 +942,95 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="4" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="4">
